--- a/data/trans_orig/P6517-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D814D1FC-7BDA-413E-896E-85D188B8EF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6E755E-EDB1-4F37-8EC2-01C40B209CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AB8EF4A-ABA2-4193-901F-90378744FA4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D73657FD-765D-4071-B12E-371397F4B57B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,19 +104,19 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>23,77%</t>
@@ -125,7 +125,7 @@
     <t>19,8%</t>
   </si>
   <si>
-    <t>27,49%</t>
+    <t>27,46%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>12,94%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,352 +164,358 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAED915D-5799-4D02-BF4C-727702A2CFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38455B-2670-4242-AED4-10FC5F5ED515}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1341,7 +1347,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,13 +1362,13 @@
         <v>334661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -1371,28 +1377,28 @@
         <v>192968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>506</v>
       </c>
       <c r="N10" s="7">
-        <v>527629</v>
+        <v>527630</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1413,13 @@
         <v>221673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -1422,13 +1428,13 @@
         <v>58409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>270</v>
@@ -1437,13 +1443,13 @@
         <v>280082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1464,13 @@
         <v>89044</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -1473,13 +1479,13 @@
         <v>26641</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -1488,13 +1494,13 @@
         <v>115685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,7 +1542,7 @@
         <v>1632</v>
       </c>
       <c r="N13" s="7">
-        <v>1705261</v>
+        <v>1705262</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1550,7 +1556,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1568,13 @@
         <v>78668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -1577,13 +1583,13 @@
         <v>80234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -1592,13 +1598,13 @@
         <v>158902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1619,13 @@
         <v>112359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>89</v>
@@ -1628,13 +1634,13 @@
         <v>93967</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>193</v>
@@ -1643,13 +1649,13 @@
         <v>206326</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1670,13 @@
         <v>141666</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -1679,13 +1685,13 @@
         <v>80916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -1694,13 +1700,13 @@
         <v>222583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1721,13 @@
         <v>70868</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -1730,13 +1736,13 @@
         <v>35058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -1745,13 +1751,13 @@
         <v>105926</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1825,13 @@
         <v>765745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>459</v>
@@ -1834,13 +1840,13 @@
         <v>483722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1191</v>
@@ -1849,13 +1855,13 @@
         <v>1249467</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1876,13 @@
         <v>538543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>305</v>
@@ -1885,13 +1891,13 @@
         <v>320448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>815</v>
@@ -1900,13 +1906,13 @@
         <v>858991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1927,13 @@
         <v>411823</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>148</v>
@@ -1936,13 +1942,13 @@
         <v>150240</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -1951,13 +1957,13 @@
         <v>562064</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1978,13 @@
         <v>185777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -1987,13 +1993,13 @@
         <v>68735</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -2002,13 +2008,13 @@
         <v>254512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6E755E-EDB1-4F37-8EC2-01C40B209CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E227B9D-ADE9-44FF-8759-324052E296F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D73657FD-765D-4071-B12E-371397F4B57B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10D21306-B675-4334-B901-DEC98F24AAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>12,94%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,109 @@
     <t>42,57%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,79 +308,79 @@
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>27,84%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>28,36%</t>
+    <t>28,6%</t>
   </si>
   <si>
     <t>35,87%</t>
@@ -389,133 +389,136 @@
     <t>17,56%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,93%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA38455B-2670-4242-AED4-10FC5F5ED515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B067F-7192-4D87-9170-0A4E27365F8F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1855,13 +1858,13 @@
         <v>1249467</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1879,13 @@
         <v>538543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>305</v>
@@ -1891,13 +1894,13 @@
         <v>320448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>815</v>
@@ -1906,13 +1909,13 @@
         <v>858991</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1930,13 @@
         <v>411823</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>148</v>
@@ -1942,13 +1945,13 @@
         <v>150240</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -1957,13 +1960,13 @@
         <v>562064</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1981,13 @@
         <v>185777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -1993,13 +1996,13 @@
         <v>68735</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -2008,13 +2011,13 @@
         <v>254512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2073,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E227B9D-ADE9-44FF-8759-324052E296F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8C3207-CC20-419E-9FF8-8C1C379FBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10D21306-B675-4334-B901-DEC98F24AAA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E5B79B9-4592-42C3-9E34-B772B2D4EF49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>55,72%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,43%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>12,94%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,103 @@
     <t>42,57%</t>
   </si>
   <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>43,44%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,217 +302,214 @@
     <t>19,49%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>22,91%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>27,84%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>32,08%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4B067F-7192-4D87-9170-0A4E27365F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99629A5-9A2B-49A0-B1B1-9E6419DF679E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1350,7 +1341,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,13 +1356,13 @@
         <v>334661</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>185</v>
@@ -1380,28 +1371,28 @@
         <v>192968</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>506</v>
       </c>
       <c r="N10" s="7">
-        <v>527630</v>
+        <v>527629</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,13 +1407,13 @@
         <v>221673</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -1431,13 +1422,13 @@
         <v>58409</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>270</v>
@@ -1446,13 +1437,13 @@
         <v>280082</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,13 +1458,13 @@
         <v>89044</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -1482,13 +1473,13 @@
         <v>26641</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -1497,13 +1488,13 @@
         <v>115685</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1536,7 @@
         <v>1632</v>
       </c>
       <c r="N13" s="7">
-        <v>1705262</v>
+        <v>1705261</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1559,7 +1550,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1571,13 +1562,13 @@
         <v>78668</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -1586,13 +1577,13 @@
         <v>80234</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -1601,13 +1592,13 @@
         <v>158902</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1613,13 @@
         <v>112359</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>89</v>
@@ -1637,13 +1628,13 @@
         <v>93967</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>193</v>
@@ -1652,13 +1643,13 @@
         <v>206326</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,13 +1664,13 @@
         <v>141666</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -1688,13 +1679,13 @@
         <v>80916</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -1703,13 +1694,13 @@
         <v>222583</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1715,13 @@
         <v>70868</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -1739,13 +1730,13 @@
         <v>35058</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>101</v>
@@ -1754,13 +1745,13 @@
         <v>105926</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,13 +1819,13 @@
         <v>765745</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>459</v>
@@ -1843,13 +1834,13 @@
         <v>483722</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1191</v>
@@ -1858,13 +1849,13 @@
         <v>1249467</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1870,13 @@
         <v>538543</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>305</v>
@@ -1894,13 +1885,13 @@
         <v>320448</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>815</v>
@@ -1909,13 +1900,13 @@
         <v>858991</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1921,13 @@
         <v>411823</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>148</v>
@@ -1945,13 +1936,13 @@
         <v>150240</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>547</v>
@@ -1960,13 +1951,13 @@
         <v>562064</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1972,13 @@
         <v>185777</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -1996,13 +1987,13 @@
         <v>68735</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -2011,13 +2002,13 @@
         <v>254512</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8C3207-CC20-419E-9FF8-8C1C379FBE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2434DE2-EBA3-4BAA-8ED9-E365ED6CB32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E5B79B9-4592-42C3-9E34-B772B2D4EF49}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C5D49EDD-CF9D-40B7-B8CD-A560DCD59B77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99629A5-9A2B-49A0-B1B1-9E6419DF679E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6832B739-E730-45EA-8DBE-94D64B4B21E4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1676,7 @@
         <v>79</v>
       </c>
       <c r="I16" s="7">
-        <v>80916</v>
+        <v>80917</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -1727,7 +1727,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>35058</v>
+        <v>35059</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -1778,7 +1778,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
